--- a/Excel_luban/Datas/EightGiftConfig.xlsx
+++ b/Excel_luban/Datas/EightGiftConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="EightGiftConfig" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=;),ItemProp</t>
   </si>
   <si>
     <t>##group</t>
@@ -1310,7 +1313,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1399,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
@@ -1426,14 +1429,14 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:26">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -1460,16 +1463,16 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:26">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -1499,10 +1502,10 @@
         <v>1001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="2:4">
@@ -1510,10 +1513,10 @@
         <v>1002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="2:4">
@@ -1521,10 +1524,10 @@
         <v>1003</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="2:4">
@@ -1532,10 +1535,10 @@
         <v>1004</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="2:4">
@@ -1543,10 +1546,10 @@
         <v>1005</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="2:4">
@@ -1554,10 +1557,10 @@
         <v>1006</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.95" customHeight="1" spans="2:4">
@@ -1565,10 +1568,10 @@
         <v>1007</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1576,10 +1579,10 @@
         <v>1008</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_luban/Datas/EightGiftConfig.xlsx
+++ b/Excel_luban/Datas/EightGiftConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="EightGiftConfig" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EightGiftConfig!$B$6:$D$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -64,62 +77,65 @@
     <t>第一天</t>
   </si>
   <si>
-    <t>30010:1</t>
+    <t>1401:1</t>
   </si>
   <si>
     <t>第二天</t>
   </si>
   <si>
-    <t>40003:1</t>
+    <t>1401:2</t>
   </si>
   <si>
     <t>第三天</t>
   </si>
   <si>
-    <t>40004:1</t>
+    <t>1401:3</t>
+  </si>
+  <si>
+    <t>1001:1</t>
   </si>
   <si>
     <t>第四天</t>
   </si>
   <si>
-    <t>40005:1</t>
+    <t>1401:4;1101:5</t>
   </si>
   <si>
     <t>第五天</t>
   </si>
   <si>
-    <t>40006:1</t>
+    <t>1401:5</t>
   </si>
   <si>
     <t>第六天</t>
   </si>
   <si>
-    <t>40007:1</t>
+    <t>1401:6</t>
   </si>
   <si>
     <t>第七天</t>
   </si>
   <si>
-    <t>40013:1;40006:1</t>
+    <t>1401:7;1402:1</t>
   </si>
   <si>
     <t>第八天</t>
   </si>
   <si>
-    <t>40008:1;40013:1;40006:1</t>
+    <t>1401:7;1402:1;1501:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,14 +175,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -696,133 +704,133 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,7 +869,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,7 +908,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,7 +1327,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1322,7 +1336,9 @@
     <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="5" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="11.5" style="4"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:26">
@@ -1497,16 +1513,17 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="2:4">
+    <row r="6" s="3" customFormat="1" spans="2:8">
       <c r="B6" s="11">
         <v>1001</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="2:4">
       <c r="B7" s="11">
@@ -1515,19 +1532,22 @@
       <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="2:4">
+    <row r="8" s="3" customFormat="1" spans="2:8">
       <c r="B8" s="11">
         <v>1003</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>19</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="2:4">
@@ -1535,10 +1555,10 @@
         <v>1004</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="11" t="s">
         <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="2:4">
@@ -1546,10 +1566,10 @@
         <v>1005</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="2:4">
@@ -1557,10 +1577,10 @@
         <v>1006</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.95" customHeight="1" spans="2:4">
@@ -1568,10 +1588,10 @@
         <v>1007</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="11" t="s">
         <v>27</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1579,47 +1599,17 @@
         <v>1008</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="11" t="s">
         <v>29</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B6:B13">
     <cfRule type="duplicateValues" dxfId="0" priority="200"/>
     <cfRule type="duplicateValues" dxfId="1" priority="201"/>
     <cfRule type="duplicateValues" dxfId="0" priority="202"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B12:B13 B10 B8">
     <cfRule type="duplicateValues" dxfId="2" priority="196"/>
